--- a/station_db.xlsx
+++ b/station_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20010" windowHeight="13230"/>
+    <workbookView windowWidth="14880" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672">
   <si>
     <t>lineid</t>
   </si>
@@ -1014,7 +1014,7 @@
     <t>JINGTIAN</t>
   </si>
   <si>
-    <t>06:45/23:43|06:40/23:25</t>
+    <t>06:35/23:16|06:40/23:30</t>
   </si>
   <si>
     <t>JT</t>
@@ -1735,6 +1735,303 @@
   </si>
   <si>
     <t>,22.551296</t>
+  </si>
+  <si>
+    <t>梅景</t>
+  </si>
+  <si>
+    <t>MEIJING</t>
+  </si>
+  <si>
+    <t>06:37/23:18|06:38/23:28</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>下梅林</t>
+  </si>
+  <si>
+    <t>XIAMEILIN</t>
+  </si>
+  <si>
+    <t>06:29/23:19|06:36/23:26</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>梅村</t>
+  </si>
+  <si>
+    <t>MEICHUN</t>
+  </si>
+  <si>
+    <t>06:31/23:21|06:34/23:24</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>孖岭</t>
+  </si>
+  <si>
+    <t>ZILING</t>
+  </si>
+  <si>
+    <t>06:35/23:25|06:30/23:20</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>银湖</t>
+  </si>
+  <si>
+    <t>YINGHU</t>
+  </si>
+  <si>
+    <t>06:38/23:28|06:47/23:17</t>
+  </si>
+  <si>
+    <t>泥岗</t>
+  </si>
+  <si>
+    <t>NIGANG</t>
+  </si>
+  <si>
+    <t>06:30/23:30|06:45/23:15</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>园岭</t>
+  </si>
+  <si>
+    <t>YUANLING</t>
+  </si>
+  <si>
+    <t>06:34/23:34|06:41/23:11</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>06:36/23:36|06:39/23:09</t>
+  </si>
+  <si>
+    <t>红岭南</t>
+  </si>
+  <si>
+    <t>HONGLINGNAN</t>
+  </si>
+  <si>
+    <t>06:38/23:39|06:37/23:07</t>
+  </si>
+  <si>
+    <t>HLN</t>
+  </si>
+  <si>
+    <t>鹿丹村</t>
+  </si>
+  <si>
+    <t>LUDANCHUN</t>
+  </si>
+  <si>
+    <t>06:30/23:40|06:35/23:05</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>人民南</t>
+  </si>
+  <si>
+    <t>RENMINGNAN</t>
+  </si>
+  <si>
+    <t>06:32/23:42|06:33/23:03</t>
+  </si>
+  <si>
+    <t>RMN</t>
+  </si>
+  <si>
+    <t>向西村</t>
+  </si>
+  <si>
+    <t>XIANGXICHUN</t>
+  </si>
+  <si>
+    <t>06:34/23:44|06:31/23:01</t>
+  </si>
+  <si>
+    <t>XXC</t>
+  </si>
+  <si>
+    <t>文锦</t>
+  </si>
+  <si>
+    <t>WENJING</t>
+  </si>
+  <si>
+    <t>WJ</t>
+  </si>
+  <si>
+    <t>06:30/23:30|—/—</t>
+  </si>
+  <si>
+    <t>06:41/23:41|06:32/00:18</t>
+  </si>
+  <si>
+    <t>南山</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>06:44/23:44|06:30/00:15</t>
+  </si>
+  <si>
+    <t>06:30/23:48|06:36/00:12</t>
+  </si>
+  <si>
+    <t>宝安</t>
+  </si>
+  <si>
+    <t>BAOAN</t>
+  </si>
+  <si>
+    <t>06:33/23:51|06:33/00:08</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>碧海湾</t>
+  </si>
+  <si>
+    <t>BIHAIWANG</t>
+  </si>
+  <si>
+    <t>06:36/23:54|06:30/00:05</t>
+  </si>
+  <si>
+    <t>BHW</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>JICHANG</t>
+  </si>
+  <si>
+    <t>06:42/00:00|06:33/00:00</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>机场北</t>
+  </si>
+  <si>
+    <t>JICHANGBEI</t>
+  </si>
+  <si>
+    <t>06:45/00:03|06:30/23:56</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>福永</t>
+  </si>
+  <si>
+    <t>FUYONG</t>
+  </si>
+  <si>
+    <t>06:48/00:06|06:35/23:53</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>桥头</t>
+  </si>
+  <si>
+    <t>QIAOTOU</t>
+  </si>
+  <si>
+    <t>06:51/00:09|06:32/23:50</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>塘尾</t>
+  </si>
+  <si>
+    <t>TANGWEI</t>
+  </si>
+  <si>
+    <t>06:53/00:11|06:30/23:48</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>马安山</t>
+  </si>
+  <si>
+    <t>MAANSHANG</t>
+  </si>
+  <si>
+    <t>06:56/00:14|06:36/23:45</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>沙井</t>
+  </si>
+  <si>
+    <t>SHAJING</t>
+  </si>
+  <si>
+    <t>06:58/00:16|06:33/23:43</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>后亭</t>
+  </si>
+  <si>
+    <t>HOUTING</t>
+  </si>
+  <si>
+    <t>07:01/00:19|06:30/23:40</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>松岗</t>
+  </si>
+  <si>
+    <t>SONGGANG</t>
+  </si>
+  <si>
+    <t>07:04/00:22|06:28/23:37</t>
+  </si>
+  <si>
+    <t>碧头</t>
+  </si>
+  <si>
+    <t>BITOU</t>
+  </si>
+  <si>
+    <t>—/—|06:25/23:34</t>
   </si>
 </sst>
 </file>
@@ -1742,10 +2039,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1780,7 +2077,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1788,53 +2085,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1842,6 +2093,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1864,6 +2122,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1871,30 +2136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1916,8 +2158,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1932,19 +2229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,31 +2265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,13 +2289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,19 +2307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,25 +2337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,31 +2361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,22 +2423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2157,6 +2449,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2200,26 +2501,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,10 +2528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,138 +2540,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2390,6 +2690,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2740,10 +3046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3381,14 +3687,14 @@
       <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="G22">
-        <v>113.904593</v>
-      </c>
-      <c r="H22">
-        <v>22.54341</v>
+      <c r="G22" s="2">
+        <v>113.904589</v>
+      </c>
+      <c r="H22" s="2">
+        <v>22.543344</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>93</v>
@@ -3729,14 +4035,14 @@
       <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="G34">
-        <v>114.109001</v>
-      </c>
-      <c r="H34">
-        <v>22.555362</v>
+      <c r="G34" s="2">
+        <v>114.111026</v>
+      </c>
+      <c r="H34" s="2">
+        <v>22.554614</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>141</v>
@@ -4164,14 +4470,14 @@
       <c r="E49" t="s">
         <v>196</v>
       </c>
-      <c r="G49">
-        <v>114.059782</v>
-      </c>
-      <c r="H49">
-        <v>22.546119</v>
+      <c r="G49" s="2">
+        <v>114.06056</v>
+      </c>
+      <c r="H49" s="2">
+        <v>22.545452</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
         <v>197</v>
@@ -4686,14 +4992,14 @@
       <c r="E67" t="s">
         <v>261</v>
       </c>
-      <c r="G67">
-        <v>114.066097</v>
-      </c>
-      <c r="H67">
-        <v>22.576122</v>
+      <c r="G67" s="2">
+        <v>114.065765</v>
+      </c>
+      <c r="H67" s="2">
+        <v>22.576547</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>262</v>
@@ -5128,7 +5434,7 @@
         <v>22.522811</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>315</v>
@@ -5273,7 +5579,7 @@
         <v>22.559376</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>333</v>
@@ -6620,7 +6926,7 @@
       <c r="D134" t="s">
         <v>464</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="3" t="s">
         <v>488</v>
       </c>
       <c r="G134" s="1">
@@ -6874,7 +7180,7 @@
       <c r="A144">
         <v>7</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D144" t="s">
@@ -7004,7 +7310,7 @@
       <c r="A149">
         <v>7</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="5" t="s">
         <v>527</v>
       </c>
       <c r="D149" t="s">
@@ -7030,7 +7336,7 @@
       <c r="A150">
         <v>7</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D150" t="s">
@@ -7160,7 +7466,7 @@
       <c r="A155">
         <v>7</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>541</v>
       </c>
       <c r="D155" t="s">
@@ -7186,7 +7492,7 @@
       <c r="A156">
         <v>7</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>544</v>
       </c>
       <c r="D156" t="s">
@@ -7316,7 +7622,7 @@
       <c r="A161">
         <v>9</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="6" t="s">
         <v>555</v>
       </c>
       <c r="D161" t="s">
@@ -7368,7 +7674,7 @@
       <c r="A163">
         <v>9</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D163" t="s">
@@ -7446,7 +7752,7 @@
       <c r="A166">
         <v>9</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="5" t="s">
         <v>569</v>
       </c>
       <c r="D166" t="s">
@@ -7468,64 +7774,888 @@
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="G167">
+        <v>114.050218</v>
+      </c>
+      <c r="H167">
+        <v>22.559168</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="C168" t="s">
+        <v>573</v>
+      </c>
+      <c r="D168" t="s">
+        <v>574</v>
+      </c>
+      <c r="E168" t="s">
+        <v>575</v>
+      </c>
+      <c r="G168" s="2">
+        <v>114.044462</v>
+      </c>
+      <c r="H168" s="2">
+        <v>22.56689</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="169" ht="17.25" spans="1:10">
       <c r="A169">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="C169" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D169" t="s">
+        <v>578</v>
+      </c>
+      <c r="E169" t="s">
+        <v>579</v>
+      </c>
+      <c r="G169" s="2">
+        <v>114.048023</v>
+      </c>
+      <c r="H169" s="2">
+        <v>22.571368</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="170" ht="17.25" spans="1:10">
       <c r="A170">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="C170" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D170" t="s">
+        <v>582</v>
+      </c>
+      <c r="E170" t="s">
+        <v>583</v>
+      </c>
+      <c r="G170" s="2">
+        <v>114.059448</v>
+      </c>
+      <c r="H170" s="2">
+        <v>22.574161</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="C171" t="s">
+        <v>259</v>
+      </c>
+      <c r="D171" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" t="s">
+        <v>261</v>
+      </c>
+      <c r="G171" s="2">
+        <v>114.066596</v>
+      </c>
+      <c r="H171" s="2">
+        <v>22.574174</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="172" ht="17.25" spans="1:10">
       <c r="A172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="C172" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D172" t="s">
+        <v>586</v>
+      </c>
+      <c r="E172" t="s">
+        <v>587</v>
+      </c>
+      <c r="G172" s="2">
+        <v>114.074963</v>
+      </c>
+      <c r="H172" s="2">
+        <v>22.574168</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="C173" t="s">
+        <v>589</v>
+      </c>
+      <c r="D173" t="s">
+        <v>590</v>
+      </c>
+      <c r="E173" t="s">
+        <v>591</v>
+      </c>
+      <c r="G173" s="2">
+        <v>114.096126</v>
+      </c>
+      <c r="H173" s="2">
+        <v>22.573902</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" ht="17.25" spans="1:10">
       <c r="A174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="C174" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D174" t="s">
+        <v>593</v>
+      </c>
+      <c r="E174" t="s">
+        <v>594</v>
+      </c>
+      <c r="G174" s="2">
+        <v>114.104372</v>
+      </c>
+      <c r="H174" s="2">
+        <v>22.573718</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="175" ht="17.25" spans="1:10">
       <c r="A175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="C175" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D175" t="s">
+        <v>545</v>
+      </c>
+      <c r="E175" t="s">
+        <v>546</v>
+      </c>
+      <c r="G175" s="1">
+        <v>114.110793</v>
+      </c>
+      <c r="H175" s="1">
+        <v>22.568287</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="C176" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" t="s">
+        <v>597</v>
+      </c>
+      <c r="E176" t="s">
+        <v>598</v>
+      </c>
+      <c r="G176" s="2">
+        <v>114.112221</v>
+      </c>
+      <c r="H176" s="2">
+        <v>22.562135</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="C177" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" t="s">
+        <v>139</v>
+      </c>
+      <c r="E177" t="s">
+        <v>600</v>
+      </c>
+      <c r="G177" s="2">
+        <v>114.111026</v>
+      </c>
+      <c r="H177" s="2">
+        <v>22.554614</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" ht="17.25" spans="1:10">
       <c r="A178">
         <v>9</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D178" t="s">
+        <v>602</v>
+      </c>
+      <c r="E178" t="s">
+        <v>603</v>
+      </c>
+      <c r="G178" s="2">
+        <v>114.111226</v>
+      </c>
+      <c r="H178" s="2">
+        <v>22.545533</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="179" ht="17.25" spans="1:10">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D179" t="s">
+        <v>606</v>
+      </c>
+      <c r="E179" t="s">
+        <v>607</v>
+      </c>
+      <c r="G179" s="2">
+        <v>114.115694</v>
+      </c>
+      <c r="H179" s="2">
+        <v>22.541542</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>609</v>
+      </c>
+      <c r="D180" t="s">
+        <v>610</v>
+      </c>
+      <c r="E180" t="s">
+        <v>611</v>
+      </c>
+      <c r="G180" s="2">
+        <v>114.124462</v>
+      </c>
+      <c r="H180">
+        <v>22.541853</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="181" ht="17.25" spans="1:10">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D181" t="s">
+        <v>614</v>
+      </c>
+      <c r="E181" t="s">
+        <v>615</v>
+      </c>
+      <c r="G181" s="2">
+        <v>114.132273</v>
+      </c>
+      <c r="H181" s="2">
+        <v>22.546172</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="182" ht="17.25" spans="1:10">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D182" t="s">
+        <v>618</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182">
+        <v>114.137445</v>
+      </c>
+      <c r="H182">
+        <v>22.548714</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>194</v>
+      </c>
+      <c r="D183" t="s">
+        <v>195</v>
+      </c>
+      <c r="E183" t="s">
+        <v>620</v>
+      </c>
+      <c r="G183" s="2">
+        <v>114.06056</v>
+      </c>
+      <c r="H183" s="2">
+        <v>22.545452</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="1">
+        <v>114.033246</v>
+      </c>
+      <c r="H184" s="1">
+        <v>22.542356</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" spans="1:10">
+      <c r="A185">
+        <v>11</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D185" t="s">
+        <v>556</v>
+      </c>
+      <c r="E185" t="s">
+        <v>64</v>
+      </c>
+      <c r="G185">
+        <v>113.978249</v>
+      </c>
+      <c r="H185" s="1">
+        <v>22.529152</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>312</v>
+      </c>
+      <c r="D186" t="s">
+        <v>313</v>
+      </c>
+      <c r="E186" t="s">
+        <v>621</v>
+      </c>
+      <c r="G186">
+        <v>113.946824</v>
+      </c>
+      <c r="H186">
+        <v>22.522811</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" ht="17.25" spans="1:10">
+      <c r="A187">
+        <v>11</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D187" t="s">
+        <v>623</v>
+      </c>
+      <c r="E187" t="s">
+        <v>624</v>
+      </c>
+      <c r="G187" s="2">
+        <v>113.93043</v>
+      </c>
+      <c r="H187" s="2">
+        <v>22.52975</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>90</v>
+      </c>
+      <c r="D188" t="s">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>625</v>
+      </c>
+      <c r="G188" s="2">
+        <v>113.904589</v>
+      </c>
+      <c r="H188" s="2">
+        <v>22.543344</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>626</v>
+      </c>
+      <c r="D189" t="s">
+        <v>627</v>
+      </c>
+      <c r="E189" t="s">
+        <v>628</v>
+      </c>
+      <c r="G189" s="2">
+        <v>113.887663</v>
+      </c>
+      <c r="H189" s="2">
+        <v>22.560218</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>630</v>
+      </c>
+      <c r="D190" t="s">
+        <v>631</v>
+      </c>
+      <c r="E190" t="s">
+        <v>632</v>
+      </c>
+      <c r="G190" s="2">
+        <v>113.862156</v>
+      </c>
+      <c r="H190" s="2">
+        <v>22.581575</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="191" ht="17.25" spans="1:10">
+      <c r="A191">
+        <v>11</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D191" t="s">
+        <v>635</v>
+      </c>
+      <c r="E191" t="s">
+        <v>636</v>
+      </c>
+      <c r="G191">
+        <v>113.820643</v>
+      </c>
+      <c r="H191">
+        <v>22.629272</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>638</v>
+      </c>
+      <c r="D192" t="s">
+        <v>639</v>
+      </c>
+      <c r="E192" t="s">
+        <v>640</v>
+      </c>
+      <c r="G192" s="2">
+        <v>113.803871</v>
+      </c>
+      <c r="H192" s="2">
+        <v>22.657707</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>642</v>
+      </c>
+      <c r="D193" t="s">
+        <v>643</v>
+      </c>
+      <c r="E193" t="s">
+        <v>644</v>
+      </c>
+      <c r="G193" s="2">
+        <v>113.81262</v>
+      </c>
+      <c r="H193" s="2">
+        <v>22.679306</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="194" ht="17.25" spans="1:10">
+      <c r="A194">
+        <v>11</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D194" t="s">
+        <v>647</v>
+      </c>
+      <c r="E194" t="s">
+        <v>648</v>
+      </c>
+      <c r="G194" s="2">
+        <v>113.817671</v>
+      </c>
+      <c r="H194" s="2">
+        <v>22.693556</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="195" ht="17.25" spans="1:10">
+      <c r="A195">
+        <v>11</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D195" t="s">
+        <v>651</v>
+      </c>
+      <c r="E195" t="s">
+        <v>652</v>
+      </c>
+      <c r="G195" s="2">
+        <v>113.824472</v>
+      </c>
+      <c r="H195" s="2">
+        <v>22.7077</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="196" ht="17.25" spans="1:10">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D196" t="s">
+        <v>655</v>
+      </c>
+      <c r="E196" t="s">
+        <v>656</v>
+      </c>
+      <c r="G196" s="2">
+        <v>113.823591</v>
+      </c>
+      <c r="H196" s="2">
+        <v>22.722664</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197" ht="17.25" spans="1:10">
+      <c r="A197">
+        <v>11</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D197" t="s">
+        <v>659</v>
+      </c>
+      <c r="E197" t="s">
+        <v>660</v>
+      </c>
+      <c r="G197" s="2">
+        <v>113.830958</v>
+      </c>
+      <c r="H197" s="2">
+        <v>22.736049</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>662</v>
+      </c>
+      <c r="D198" t="s">
+        <v>663</v>
+      </c>
+      <c r="E198" t="s">
+        <v>664</v>
+      </c>
+      <c r="G198" s="2">
+        <v>113.833086</v>
+      </c>
+      <c r="H198" s="2">
+        <v>22.758525</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="199" ht="17.25" spans="1:10">
+      <c r="A199">
+        <v>11</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D199" t="s">
+        <v>667</v>
+      </c>
+      <c r="E199" t="s">
+        <v>668</v>
+      </c>
+      <c r="G199" s="2">
+        <v>113.83634</v>
+      </c>
+      <c r="H199" s="2">
+        <v>22.777946</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>669</v>
+      </c>
+      <c r="D200" t="s">
+        <v>670</v>
+      </c>
+      <c r="E200" t="s">
+        <v>671</v>
+      </c>
+      <c r="G200" s="2">
+        <v>113.82653</v>
+      </c>
+      <c r="H200" s="2">
+        <v>22.788982</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7541,6 +8671,22 @@
     <hyperlink ref="C163" r:id="rId9" display="深圳湾公园" tooltip="http://jt.sz.bendibao.com/z/metro/zd_shenzhenwangongyuan.shtml"/>
     <hyperlink ref="C164" r:id="rId10" display="下沙" tooltip="http://jt.sz.bendibao.com/z/metro/zd_xiasha.shtml"/>
     <hyperlink ref="C166" r:id="rId11" display="香梅" tooltip="http://jt.sz.bendibao.com/z/metro/zd_xiangmei.shtml"/>
+    <hyperlink ref="C169" r:id="rId12" display="下梅林" tooltip="http://jt.sz.bendibao.com/z/metro/zd_xiameilin.shtml"/>
+    <hyperlink ref="C170" r:id="rId13" display="梅村" tooltip="http://jt.sz.bendibao.com/z/metro/zd_meicun.shtml"/>
+    <hyperlink ref="C174" r:id="rId14" display="泥岗" tooltip="http://jt.sz.bendibao.com/z/metro/zd_nigang.shtml"/>
+    <hyperlink ref="C175" r:id="rId7" display="红岭北" tooltip="http://jt.sz.bendibao.com/z/metro/zd_honglingbei.shtml"/>
+    <hyperlink ref="C178" r:id="rId15" display="红岭南" tooltip="http://jt.sz.bendibao.com/z/metro/zd_honglingnan.shtml"/>
+    <hyperlink ref="C179" r:id="rId16" display="鹿丹村" tooltip="http://jt.sz.bendibao.com/z/metro/zd_ludancun.shtml"/>
+    <hyperlink ref="C181" r:id="rId17" display="向西村" tooltip="http://jt.sz.bendibao.com/z/metro/zd_xiangxicun.shtml"/>
+    <hyperlink ref="C182" r:id="rId18" display="文锦" tooltip="http://jt.sz.bendibao.com/z/metro/zd_wenjin.shtml"/>
+    <hyperlink ref="C185" r:id="rId8" display="红树湾南" tooltip="http://jt.sz.bendibao.com/z/metro/zd_hongshuwannan.shtml"/>
+    <hyperlink ref="C187" r:id="rId19" display="南山" tooltip="http://jt.sz.bendibao.com/z/metro/zd_nanshan.shtml"/>
+    <hyperlink ref="C191" r:id="rId20" display="机场" tooltip="http://jt.sz.bendibao.com/z/metro/zd_jichang.shtml"/>
+    <hyperlink ref="C194" r:id="rId21" display="桥头" tooltip="http://jt.sz.bendibao.com/z/metro/zd_qiaotou.shtml"/>
+    <hyperlink ref="C195" r:id="rId22" display="塘尾" tooltip="http://jt.sz.bendibao.com/z/metro/zd_tangwei.shtml"/>
+    <hyperlink ref="C196" r:id="rId23" display="马安山" tooltip="http://jt.sz.bendibao.com/z/metro/zd_maanshan.shtml"/>
+    <hyperlink ref="C197" r:id="rId24" display="沙井" tooltip="http://jt.sz.bendibao.com/z/metro/zd_shajing.shtml"/>
+    <hyperlink ref="C199" r:id="rId25" display="松岗" tooltip="http://jt.sz.bendibao.com/z/metro/zd_songgang.shtml"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
